--- a/Tables/PresidioRecognizersMapping.xlsx
+++ b/Tables/PresidioRecognizersMapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ondra\Documents\VŠE\DP\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB1E6D5-738B-4C48-8796-6474F6025B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717FB349-DB96-47FB-878B-B168C298178E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Mapa kategorií osobních údajů - výsledná kategorizace</t>
+  </si>
+  <si>
+    <t>UrlRecognizer</t>
   </si>
 </sst>
 </file>
@@ -570,46 +573,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -893,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -909,20 +912,20 @@
   <sheetData>
     <row r="2" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="3:7" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="3:7" ht="35.4" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
@@ -937,18 +940,18 @@
       <c r="F5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="21"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
@@ -963,7 +966,7 @@
       <c r="F7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="17" t="s">
         <v>54</v>
       </c>
     </row>
@@ -980,7 +983,7 @@
       <c r="F8" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="17" t="s">
         <v>54</v>
       </c>
     </row>
@@ -997,7 +1000,7 @@
       <c r="F9" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="17" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1014,7 +1017,7 @@
       <c r="F10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="17" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1031,7 +1034,7 @@
       <c r="F11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="17" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1048,7 +1051,7 @@
       <c r="F12" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="17" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1065,18 +1068,18 @@
       <c r="F13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="23"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
@@ -1091,7 +1094,7 @@
       <c r="F15" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="17" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1108,7 +1111,7 @@
       <c r="F16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1125,7 +1128,7 @@
       <c r="F17" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1142,7 +1145,7 @@
       <c r="F18" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="17" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1159,7 +1162,7 @@
       <c r="F19" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="17" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1176,7 +1179,7 @@
       <c r="F20" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1193,7 +1196,7 @@
       <c r="F21" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="17" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1210,7 +1213,7 @@
       <c r="F22" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="17" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1227,7 +1230,7 @@
       <c r="F23" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1244,7 +1247,7 @@
       <c r="F24" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1261,18 +1264,18 @@
       <c r="F25" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="23"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21"/>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="3">
@@ -1287,7 +1290,7 @@
       <c r="F27" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1304,7 +1307,7 @@
       <c r="F28" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1321,7 +1324,7 @@
       <c r="F29" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="17" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1336,9 +1339,9 @@
         <v>5</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="17" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1355,7 +1358,7 @@
       <c r="F31" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1372,7 +1375,7 @@
       <c r="F32" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1389,18 +1392,18 @@
       <c r="F33" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="23"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="21"/>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C35" s="3">
@@ -1415,7 +1418,7 @@
       <c r="F35" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G35" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1432,18 +1435,18 @@
       <c r="F36" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="23"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="21"/>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C38" s="3">
@@ -1458,7 +1461,7 @@
       <c r="F38" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1475,7 +1478,7 @@
       <c r="F39" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="17" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1492,7 +1495,7 @@
       <c r="F40" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="22" t="s">
+      <c r="G40" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1509,7 +1512,7 @@
       <c r="F41" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G41" s="22" t="s">
+      <c r="G41" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1526,7 +1529,7 @@
       <c r="F42" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G42" s="22" t="s">
+      <c r="G42" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1543,7 +1546,7 @@
       <c r="F43" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G43" s="22" t="s">
+      <c r="G43" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1560,7 +1563,7 @@
       <c r="F44" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Tables/PresidioRecognizersMapping.xlsx
+++ b/Tables/PresidioRecognizersMapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ondra\Documents\VŠE\DP\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717FB349-DB96-47FB-878B-B168C298178E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C76CEA-E9BF-4AAF-9498-0BB7C3138EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -614,6 +614,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:G44"/>
+  <dimension ref="C2:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1564,6 +1566,12 @@
         <v>52</v>
       </c>
       <c r="G44" s="18"/>
+    </row>
+    <row r="90" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G90" s="32"/>
+    </row>
+    <row r="108" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H108" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="6">
